--- a/figures/descriptives.xlsx
+++ b/figures/descriptives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olaozernov-palchik/Dropbox (MIT)/GitHub/procedural-learning/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BCF6E74-7F07-044A-B6AD-B81B9DCD0C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18D82BB-D9EB-E245-AE6C-543594D0DB3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16020" xr2:uid="{0A9EEC21-D998-4144-A6EB-621817D5D37C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t xml:space="preserve">               </t>
   </si>
@@ -45,15 +45,9 @@
     <t xml:space="preserve">   TYP (N=31)   </t>
   </si>
   <si>
-    <t xml:space="preserve"> p value</t>
-  </si>
-  <si>
     <t xml:space="preserve">Age            </t>
   </si>
   <si>
-    <t xml:space="preserve">                </t>
-  </si>
-  <si>
     <t xml:space="preserve">  26.35 (6.59)  </t>
   </si>
   <si>
@@ -169,13 +163,34 @@
   </si>
   <si>
     <t xml:space="preserve">  10.36 (2.80)  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,10 +199,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,9 +245,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,223 +573,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3D28FF-0791-0949-B62D-8ECD3F8CBCE2}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="D2" s="2">
+        <v>0.84799999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>0.84799999999999998</v>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>0.106</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
-        <v>4.0000000000000001E-3</v>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11">
-        <v>5.0000000000000001E-3</v>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.93</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14">
-        <v>0.93</v>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15">
-        <v>7.3999999999999996E-2</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>